--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value569.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value569.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6188982185785143</v>
+        <v>1.174654245376587</v>
       </c>
       <c r="B1">
-        <v>1.776987802986735</v>
+        <v>2.286669969558716</v>
       </c>
       <c r="C1">
-        <v>2.799086570694239</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.678017565535681</v>
+        <v>2.141146898269653</v>
       </c>
       <c r="E1">
-        <v>1.162113464904035</v>
+        <v>1.045525312423706</v>
       </c>
     </row>
   </sheetData>
